--- a/data/dataframe/10022.xlsx
+++ b/data/dataframe/10022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shujie/jlab/CJ/CJ-database/data/JAM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EC3BDB-D6A7-6044-A5E7-F52F6FD8F25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0BC1D4-4EEE-F049-93A0-DF7AFC72B5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="16380" windowHeight="8200" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="27880" windowHeight="14340" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="format" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <t>p</t>
   </si>
   <si>
-    <t>mu</t>
-  </si>
-  <si>
     <t>nc</t>
   </si>
   <si>
@@ -249,6 +246,9 @@
   </si>
   <si>
     <t>current</t>
+  </si>
+  <si>
+    <t>mu_minus</t>
   </si>
 </sst>
 </file>
@@ -372,9 +372,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -412,7 +412,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -518,7 +518,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -660,7 +660,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="B265" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>9</v>
@@ -809,10 +809,10 @@
         <v>33</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
@@ -907,10 +907,10 @@
         <v>33</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
@@ -1005,10 +1005,10 @@
         <v>33</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -1103,10 +1103,10 @@
         <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>33</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
@@ -1299,10 +1299,10 @@
         <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
@@ -1397,10 +1397,10 @@
         <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
@@ -1495,10 +1495,10 @@
         <v>33</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
@@ -1593,10 +1593,10 @@
         <v>33</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
@@ -1691,10 +1691,10 @@
         <v>33</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
@@ -1789,10 +1789,10 @@
         <v>33</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
@@ -1887,10 +1887,10 @@
         <v>33</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K13" s="1">
         <v>1</v>
@@ -1985,10 +1985,10 @@
         <v>33</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
@@ -2083,10 +2083,10 @@
         <v>33</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K15" s="1">
         <v>1</v>
@@ -2181,10 +2181,10 @@
         <v>33</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
@@ -2279,10 +2279,10 @@
         <v>33</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
@@ -2377,10 +2377,10 @@
         <v>33</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
@@ -2475,10 +2475,10 @@
         <v>33</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
@@ -2573,10 +2573,10 @@
         <v>33</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
@@ -2671,10 +2671,10 @@
         <v>33</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K21" s="1">
         <v>1</v>
@@ -2769,10 +2769,10 @@
         <v>33</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K22" s="1">
         <v>1</v>
@@ -2867,10 +2867,10 @@
         <v>33</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K23" s="1">
         <v>1</v>
@@ -2965,10 +2965,10 @@
         <v>33</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K24" s="1">
         <v>1</v>
@@ -3063,10 +3063,10 @@
         <v>33</v>
       </c>
       <c r="I25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K25" s="1">
         <v>1</v>
@@ -3161,10 +3161,10 @@
         <v>33</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
@@ -3259,10 +3259,10 @@
         <v>33</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K27" s="1">
         <v>1</v>
@@ -3357,10 +3357,10 @@
         <v>33</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K28" s="1">
         <v>1</v>
@@ -3455,10 +3455,10 @@
         <v>33</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K29" s="1">
         <v>1</v>
@@ -3553,10 +3553,10 @@
         <v>33</v>
       </c>
       <c r="I30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K30" s="1">
         <v>1</v>
@@ -3651,10 +3651,10 @@
         <v>33</v>
       </c>
       <c r="I31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K31" s="1">
         <v>1</v>
@@ -3749,10 +3749,10 @@
         <v>33</v>
       </c>
       <c r="I32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K32" s="1">
         <v>1</v>
@@ -3847,10 +3847,10 @@
         <v>33</v>
       </c>
       <c r="I33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K33" s="1">
         <v>1</v>
@@ -3945,10 +3945,10 @@
         <v>33</v>
       </c>
       <c r="I34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K34" s="1">
         <v>1</v>
@@ -4043,10 +4043,10 @@
         <v>33</v>
       </c>
       <c r="I35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K35" s="1">
         <v>1</v>
@@ -4141,10 +4141,10 @@
         <v>33</v>
       </c>
       <c r="I36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K36" s="1">
         <v>1</v>
@@ -4239,10 +4239,10 @@
         <v>33</v>
       </c>
       <c r="I37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K37" s="1">
         <v>1</v>
@@ -4337,10 +4337,10 @@
         <v>33</v>
       </c>
       <c r="I38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K38" s="1">
         <v>1</v>
@@ -4435,10 +4435,10 @@
         <v>33</v>
       </c>
       <c r="I39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K39" s="1">
         <v>1</v>
@@ -4533,10 +4533,10 @@
         <v>33</v>
       </c>
       <c r="I40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K40" s="1">
         <v>1</v>
@@ -4631,10 +4631,10 @@
         <v>33</v>
       </c>
       <c r="I41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K41" s="1">
         <v>1</v>
@@ -4729,10 +4729,10 @@
         <v>33</v>
       </c>
       <c r="I42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K42" s="1">
         <v>1</v>
@@ -4827,10 +4827,10 @@
         <v>33</v>
       </c>
       <c r="I43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K43" s="1">
         <v>1</v>
@@ -4925,10 +4925,10 @@
         <v>33</v>
       </c>
       <c r="I44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K44" s="1">
         <v>1</v>
@@ -5023,10 +5023,10 @@
         <v>33</v>
       </c>
       <c r="I45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K45" s="1">
         <v>1</v>
@@ -5121,10 +5121,10 @@
         <v>33</v>
       </c>
       <c r="I46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K46" s="1">
         <v>1</v>
@@ -5219,10 +5219,10 @@
         <v>33</v>
       </c>
       <c r="I47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K47" s="1">
         <v>1</v>
@@ -5317,10 +5317,10 @@
         <v>33</v>
       </c>
       <c r="I48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K48" s="1">
         <v>1</v>
@@ -5415,10 +5415,10 @@
         <v>33</v>
       </c>
       <c r="I49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K49" s="1">
         <v>1</v>
@@ -5513,10 +5513,10 @@
         <v>33</v>
       </c>
       <c r="I50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K50" s="1">
         <v>1</v>
@@ -5611,10 +5611,10 @@
         <v>33</v>
       </c>
       <c r="I51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J51" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K51" s="1">
         <v>1</v>
@@ -5709,10 +5709,10 @@
         <v>33</v>
       </c>
       <c r="I52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J52" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K52" s="1">
         <v>1</v>
@@ -5807,10 +5807,10 @@
         <v>33</v>
       </c>
       <c r="I53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K53" s="1">
         <v>1</v>
@@ -5905,10 +5905,10 @@
         <v>33</v>
       </c>
       <c r="I54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J54" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K54" s="1">
         <v>1</v>
@@ -6003,10 +6003,10 @@
         <v>33</v>
       </c>
       <c r="I55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K55" s="1">
         <v>1</v>
@@ -6101,10 +6101,10 @@
         <v>33</v>
       </c>
       <c r="I56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K56" s="1">
         <v>1</v>
@@ -6199,10 +6199,10 @@
         <v>33</v>
       </c>
       <c r="I57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K57" s="1">
         <v>1</v>
@@ -6297,10 +6297,10 @@
         <v>33</v>
       </c>
       <c r="I58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J58" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K58" s="1">
         <v>1</v>
@@ -6395,10 +6395,10 @@
         <v>33</v>
       </c>
       <c r="I59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J59" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K59" s="1">
         <v>1</v>
@@ -6493,10 +6493,10 @@
         <v>33</v>
       </c>
       <c r="I60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K60" s="1">
         <v>1</v>
@@ -6591,10 +6591,10 @@
         <v>33</v>
       </c>
       <c r="I61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J61" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K61" s="1">
         <v>1</v>
@@ -6689,10 +6689,10 @@
         <v>33</v>
       </c>
       <c r="I62" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K62" s="1">
         <v>1</v>
@@ -6787,10 +6787,10 @@
         <v>33</v>
       </c>
       <c r="I63" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J63" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K63" s="1">
         <v>1</v>
@@ -6885,10 +6885,10 @@
         <v>33</v>
       </c>
       <c r="I64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K64" s="1">
         <v>1</v>
@@ -6983,10 +6983,10 @@
         <v>33</v>
       </c>
       <c r="I65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K65" s="1">
         <v>1</v>
@@ -7081,10 +7081,10 @@
         <v>33</v>
       </c>
       <c r="I66" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J66" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K66" s="1">
         <v>1</v>
@@ -7179,10 +7179,10 @@
         <v>33</v>
       </c>
       <c r="I67" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K67" s="1">
         <v>1</v>
@@ -7277,10 +7277,10 @@
         <v>33</v>
       </c>
       <c r="I68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J68" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K68" s="1">
         <v>1</v>
@@ -7375,10 +7375,10 @@
         <v>33</v>
       </c>
       <c r="I69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J69" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K69" s="1">
         <v>1</v>
@@ -7473,10 +7473,10 @@
         <v>33</v>
       </c>
       <c r="I70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K70" s="1">
         <v>1</v>
@@ -7571,10 +7571,10 @@
         <v>33</v>
       </c>
       <c r="I71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J71" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K71" s="1">
         <v>1</v>
@@ -7669,10 +7669,10 @@
         <v>33</v>
       </c>
       <c r="I72" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J72" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K72" s="1">
         <v>1</v>
@@ -7767,10 +7767,10 @@
         <v>33</v>
       </c>
       <c r="I73" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J73" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K73" s="1">
         <v>1</v>
@@ -7865,10 +7865,10 @@
         <v>33</v>
       </c>
       <c r="I74" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J74" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K74" s="1">
         <v>1</v>
@@ -7963,10 +7963,10 @@
         <v>33</v>
       </c>
       <c r="I75" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J75" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K75" s="1">
         <v>1</v>
@@ -8061,10 +8061,10 @@
         <v>33</v>
       </c>
       <c r="I76" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K76" s="1">
         <v>1</v>
@@ -8159,10 +8159,10 @@
         <v>33</v>
       </c>
       <c r="I77" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J77" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K77" s="1">
         <v>1</v>
@@ -8257,10 +8257,10 @@
         <v>33</v>
       </c>
       <c r="I78" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K78" s="1">
         <v>1</v>
@@ -8355,10 +8355,10 @@
         <v>33</v>
       </c>
       <c r="I79" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J79" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K79" s="1">
         <v>1</v>
@@ -8453,10 +8453,10 @@
         <v>33</v>
       </c>
       <c r="I80" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J80" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K80" s="1">
         <v>1</v>
@@ -8551,10 +8551,10 @@
         <v>33</v>
       </c>
       <c r="I81" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J81" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K81" s="1">
         <v>1</v>
@@ -8649,10 +8649,10 @@
         <v>33</v>
       </c>
       <c r="I82" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J82" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K82" s="1">
         <v>1</v>
@@ -8747,10 +8747,10 @@
         <v>33</v>
       </c>
       <c r="I83" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J83" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K83" s="1">
         <v>1</v>
@@ -8845,10 +8845,10 @@
         <v>33</v>
       </c>
       <c r="I84" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J84" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K84" s="1">
         <v>1</v>
@@ -8943,10 +8943,10 @@
         <v>33</v>
       </c>
       <c r="I85" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J85" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K85" s="1">
         <v>1</v>
@@ -9041,10 +9041,10 @@
         <v>33</v>
       </c>
       <c r="I86" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J86" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K86" s="1">
         <v>1</v>
@@ -9139,10 +9139,10 @@
         <v>33</v>
       </c>
       <c r="I87" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J87" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K87" s="1">
         <v>1</v>
@@ -9237,10 +9237,10 @@
         <v>33</v>
       </c>
       <c r="I88" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J88" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K88" s="1">
         <v>1</v>
@@ -9335,10 +9335,10 @@
         <v>33</v>
       </c>
       <c r="I89" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J89" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K89" s="1">
         <v>1</v>
@@ -9433,10 +9433,10 @@
         <v>33</v>
       </c>
       <c r="I90" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J90" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K90" s="1">
         <v>1</v>
@@ -9531,10 +9531,10 @@
         <v>33</v>
       </c>
       <c r="I91" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J91" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K91" s="1">
         <v>1</v>
@@ -9629,10 +9629,10 @@
         <v>33</v>
       </c>
       <c r="I92" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J92" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K92" s="1">
         <v>1</v>
@@ -9727,10 +9727,10 @@
         <v>33</v>
       </c>
       <c r="I93" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J93" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K93" s="1">
         <v>1</v>
@@ -9825,10 +9825,10 @@
         <v>33</v>
       </c>
       <c r="I94" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J94" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K94" s="1">
         <v>1</v>
@@ -9923,10 +9923,10 @@
         <v>33</v>
       </c>
       <c r="I95" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J95" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K95" s="1">
         <v>1</v>
@@ -10021,10 +10021,10 @@
         <v>33</v>
       </c>
       <c r="I96" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J96" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K96" s="1">
         <v>1</v>
@@ -10119,10 +10119,10 @@
         <v>33</v>
       </c>
       <c r="I97" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J97" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K97" s="1">
         <v>1</v>
@@ -10217,10 +10217,10 @@
         <v>33</v>
       </c>
       <c r="I98" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J98" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K98" s="1">
         <v>1</v>
@@ -10315,10 +10315,10 @@
         <v>33</v>
       </c>
       <c r="I99" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J99" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K99" s="1">
         <v>1</v>
@@ -10413,10 +10413,10 @@
         <v>33</v>
       </c>
       <c r="I100" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J100" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K100" s="1">
         <v>1</v>
@@ -10511,10 +10511,10 @@
         <v>33</v>
       </c>
       <c r="I101" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J101" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K101" s="1">
         <v>1</v>
@@ -10609,10 +10609,10 @@
         <v>33</v>
       </c>
       <c r="I102" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J102" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K102" s="1">
         <v>1</v>
@@ -10707,10 +10707,10 @@
         <v>33</v>
       </c>
       <c r="I103" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J103" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K103" s="1">
         <v>1</v>
@@ -10805,10 +10805,10 @@
         <v>33</v>
       </c>
       <c r="I104" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J104" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K104" s="1">
         <v>1</v>
@@ -10903,10 +10903,10 @@
         <v>33</v>
       </c>
       <c r="I105" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J105" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K105" s="1">
         <v>1</v>
@@ -11001,10 +11001,10 @@
         <v>33</v>
       </c>
       <c r="I106" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J106" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K106" s="1">
         <v>1</v>
@@ -11099,10 +11099,10 @@
         <v>33</v>
       </c>
       <c r="I107" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J107" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K107" s="1">
         <v>1</v>
@@ -11197,10 +11197,10 @@
         <v>33</v>
       </c>
       <c r="I108" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J108" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K108" s="1">
         <v>1</v>
@@ -11295,10 +11295,10 @@
         <v>33</v>
       </c>
       <c r="I109" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J109" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K109" s="1">
         <v>1</v>
@@ -11393,10 +11393,10 @@
         <v>33</v>
       </c>
       <c r="I110" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J110" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K110" s="1">
         <v>1</v>
@@ -11491,10 +11491,10 @@
         <v>33</v>
       </c>
       <c r="I111" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J111" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K111" s="1">
         <v>1</v>
@@ -11589,10 +11589,10 @@
         <v>33</v>
       </c>
       <c r="I112" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J112" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K112" s="1">
         <v>1</v>
@@ -11687,10 +11687,10 @@
         <v>33</v>
       </c>
       <c r="I113" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J113" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K113" s="1">
         <v>1</v>
@@ -11785,10 +11785,10 @@
         <v>33</v>
       </c>
       <c r="I114" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J114" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K114" s="1">
         <v>1</v>
@@ -11883,10 +11883,10 @@
         <v>33</v>
       </c>
       <c r="I115" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J115" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K115" s="1">
         <v>1</v>
@@ -11981,10 +11981,10 @@
         <v>33</v>
       </c>
       <c r="I116" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J116" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K116" s="1">
         <v>1</v>
@@ -12079,10 +12079,10 @@
         <v>33</v>
       </c>
       <c r="I117" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J117" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K117" s="1">
         <v>1</v>
@@ -12177,10 +12177,10 @@
         <v>33</v>
       </c>
       <c r="I118" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J118" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K118" s="1">
         <v>1</v>
@@ -12275,10 +12275,10 @@
         <v>33</v>
       </c>
       <c r="I119" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J119" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K119" s="1">
         <v>1</v>
@@ -12373,10 +12373,10 @@
         <v>33</v>
       </c>
       <c r="I120" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J120" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K120" s="1">
         <v>1</v>
@@ -12471,10 +12471,10 @@
         <v>33</v>
       </c>
       <c r="I121" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J121" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K121" s="1">
         <v>1</v>
@@ -12569,10 +12569,10 @@
         <v>33</v>
       </c>
       <c r="I122" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J122" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K122" s="1">
         <v>1</v>
@@ -12667,10 +12667,10 @@
         <v>33</v>
       </c>
       <c r="I123" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J123" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K123" s="1">
         <v>1</v>
@@ -12765,10 +12765,10 @@
         <v>33</v>
       </c>
       <c r="I124" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J124" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K124" s="1">
         <v>1</v>
@@ -12863,10 +12863,10 @@
         <v>33</v>
       </c>
       <c r="I125" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J125" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K125" s="1">
         <v>1</v>
@@ -12961,10 +12961,10 @@
         <v>33</v>
       </c>
       <c r="I126" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J126" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K126" s="1">
         <v>1</v>
@@ -13059,10 +13059,10 @@
         <v>33</v>
       </c>
       <c r="I127" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J127" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K127" s="1">
         <v>1</v>
@@ -13157,10 +13157,10 @@
         <v>33</v>
       </c>
       <c r="I128" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J128" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K128" s="1">
         <v>1</v>
@@ -13255,10 +13255,10 @@
         <v>33</v>
       </c>
       <c r="I129" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J129" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K129" s="1">
         <v>1</v>
@@ -13353,10 +13353,10 @@
         <v>33</v>
       </c>
       <c r="I130" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J130" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K130" s="1">
         <v>1</v>
@@ -13451,10 +13451,10 @@
         <v>33</v>
       </c>
       <c r="I131" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J131" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K131" s="1">
         <v>1</v>
@@ -13549,10 +13549,10 @@
         <v>33</v>
       </c>
       <c r="I132" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J132" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K132" s="1">
         <v>1</v>
@@ -13647,10 +13647,10 @@
         <v>33</v>
       </c>
       <c r="I133" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J133" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K133" s="1">
         <v>1</v>
@@ -13745,10 +13745,10 @@
         <v>33</v>
       </c>
       <c r="I134" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J134" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K134" s="1">
         <v>1</v>
@@ -13843,10 +13843,10 @@
         <v>33</v>
       </c>
       <c r="I135" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J135" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K135" s="1">
         <v>1</v>
@@ -13941,10 +13941,10 @@
         <v>33</v>
       </c>
       <c r="I136" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J136" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K136" s="1">
         <v>1</v>
@@ -14039,10 +14039,10 @@
         <v>33</v>
       </c>
       <c r="I137" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J137" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K137" s="1">
         <v>1</v>
@@ -14137,10 +14137,10 @@
         <v>33</v>
       </c>
       <c r="I138" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J138" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K138" s="1">
         <v>1</v>
@@ -14235,10 +14235,10 @@
         <v>33</v>
       </c>
       <c r="I139" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J139" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J139" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K139" s="1">
         <v>1</v>
@@ -14333,10 +14333,10 @@
         <v>33</v>
       </c>
       <c r="I140" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J140" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K140" s="1">
         <v>1</v>
@@ -14431,10 +14431,10 @@
         <v>33</v>
       </c>
       <c r="I141" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J141" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J141" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K141" s="1">
         <v>1</v>
@@ -14529,10 +14529,10 @@
         <v>33</v>
       </c>
       <c r="I142" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J142" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K142" s="1">
         <v>1</v>
@@ -14627,10 +14627,10 @@
         <v>33</v>
       </c>
       <c r="I143" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J143" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K143" s="1">
         <v>1</v>
@@ -14725,10 +14725,10 @@
         <v>33</v>
       </c>
       <c r="I144" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J144" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K144" s="1">
         <v>1</v>
@@ -14823,10 +14823,10 @@
         <v>33</v>
       </c>
       <c r="I145" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J145" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K145" s="1">
         <v>1</v>
@@ -14921,10 +14921,10 @@
         <v>33</v>
       </c>
       <c r="I146" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J146" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K146" s="1">
         <v>1</v>
@@ -15019,10 +15019,10 @@
         <v>33</v>
       </c>
       <c r="I147" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J147" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K147" s="1">
         <v>1</v>
@@ -15117,10 +15117,10 @@
         <v>33</v>
       </c>
       <c r="I148" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J148" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J148" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K148" s="1">
         <v>1</v>
@@ -15215,10 +15215,10 @@
         <v>33</v>
       </c>
       <c r="I149" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J149" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J149" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K149" s="1">
         <v>1</v>
@@ -15313,10 +15313,10 @@
         <v>33</v>
       </c>
       <c r="I150" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J150" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K150" s="1">
         <v>1</v>
@@ -15411,10 +15411,10 @@
         <v>33</v>
       </c>
       <c r="I151" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J151" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J151" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K151" s="1">
         <v>1</v>
@@ -15509,10 +15509,10 @@
         <v>33</v>
       </c>
       <c r="I152" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J152" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J152" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K152" s="1">
         <v>1</v>
@@ -15607,10 +15607,10 @@
         <v>33</v>
       </c>
       <c r="I153" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J153" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J153" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K153" s="1">
         <v>1</v>
@@ -15705,10 +15705,10 @@
         <v>33</v>
       </c>
       <c r="I154" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J154" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J154" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K154" s="1">
         <v>1</v>
@@ -15803,10 +15803,10 @@
         <v>33</v>
       </c>
       <c r="I155" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J155" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J155" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K155" s="1">
         <v>1</v>
@@ -15901,10 +15901,10 @@
         <v>33</v>
       </c>
       <c r="I156" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J156" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J156" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K156" s="1">
         <v>1</v>
@@ -15999,10 +15999,10 @@
         <v>33</v>
       </c>
       <c r="I157" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J157" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J157" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K157" s="1">
         <v>1</v>
@@ -16097,10 +16097,10 @@
         <v>33</v>
       </c>
       <c r="I158" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J158" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J158" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K158" s="1">
         <v>1</v>
@@ -16195,10 +16195,10 @@
         <v>33</v>
       </c>
       <c r="I159" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J159" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K159" s="1">
         <v>1</v>
@@ -16293,10 +16293,10 @@
         <v>33</v>
       </c>
       <c r="I160" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J160" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J160" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K160" s="1">
         <v>1</v>
@@ -16391,10 +16391,10 @@
         <v>33</v>
       </c>
       <c r="I161" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J161" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J161" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K161" s="1">
         <v>1</v>
@@ -16489,10 +16489,10 @@
         <v>33</v>
       </c>
       <c r="I162" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J162" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J162" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K162" s="1">
         <v>1</v>
@@ -16587,10 +16587,10 @@
         <v>33</v>
       </c>
       <c r="I163" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J163" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J163" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K163" s="1">
         <v>1</v>
@@ -16685,10 +16685,10 @@
         <v>33</v>
       </c>
       <c r="I164" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J164" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J164" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K164" s="1">
         <v>1</v>
@@ -16783,10 +16783,10 @@
         <v>33</v>
       </c>
       <c r="I165" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J165" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J165" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K165" s="1">
         <v>1</v>
@@ -16881,10 +16881,10 @@
         <v>33</v>
       </c>
       <c r="I166" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J166" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J166" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K166" s="1">
         <v>1</v>
@@ -16979,10 +16979,10 @@
         <v>33</v>
       </c>
       <c r="I167" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J167" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J167" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K167" s="1">
         <v>1</v>
@@ -17077,10 +17077,10 @@
         <v>33</v>
       </c>
       <c r="I168" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J168" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J168" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K168" s="1">
         <v>1</v>
@@ -17175,10 +17175,10 @@
         <v>33</v>
       </c>
       <c r="I169" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J169" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J169" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K169" s="1">
         <v>1</v>
@@ -17273,10 +17273,10 @@
         <v>33</v>
       </c>
       <c r="I170" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J170" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J170" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K170" s="1">
         <v>1</v>
@@ -17371,10 +17371,10 @@
         <v>33</v>
       </c>
       <c r="I171" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J171" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J171" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K171" s="1">
         <v>1</v>
@@ -17469,10 +17469,10 @@
         <v>33</v>
       </c>
       <c r="I172" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J172" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J172" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K172" s="1">
         <v>1</v>
@@ -17567,10 +17567,10 @@
         <v>33</v>
       </c>
       <c r="I173" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J173" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J173" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K173" s="1">
         <v>1</v>
@@ -17665,10 +17665,10 @@
         <v>33</v>
       </c>
       <c r="I174" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J174" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J174" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K174" s="1">
         <v>1</v>
@@ -17763,10 +17763,10 @@
         <v>33</v>
       </c>
       <c r="I175" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J175" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J175" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K175" s="1">
         <v>1</v>
@@ -17861,10 +17861,10 @@
         <v>33</v>
       </c>
       <c r="I176" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J176" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J176" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K176" s="1">
         <v>1</v>
@@ -17959,10 +17959,10 @@
         <v>33</v>
       </c>
       <c r="I177" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J177" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J177" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K177" s="1">
         <v>1</v>
@@ -18057,10 +18057,10 @@
         <v>33</v>
       </c>
       <c r="I178" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J178" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J178" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K178" s="1">
         <v>1</v>
@@ -18155,10 +18155,10 @@
         <v>33</v>
       </c>
       <c r="I179" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J179" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J179" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K179" s="1">
         <v>1</v>
@@ -18253,10 +18253,10 @@
         <v>33</v>
       </c>
       <c r="I180" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J180" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J180" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K180" s="1">
         <v>1</v>
@@ -18351,10 +18351,10 @@
         <v>33</v>
       </c>
       <c r="I181" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J181" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J181" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K181" s="1">
         <v>1</v>
@@ -18449,10 +18449,10 @@
         <v>33</v>
       </c>
       <c r="I182" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J182" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J182" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K182" s="1">
         <v>1</v>
@@ -18547,10 +18547,10 @@
         <v>33</v>
       </c>
       <c r="I183" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J183" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J183" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K183" s="1">
         <v>1</v>
@@ -18645,10 +18645,10 @@
         <v>33</v>
       </c>
       <c r="I184" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J184" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J184" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K184" s="1">
         <v>1</v>
@@ -18743,10 +18743,10 @@
         <v>33</v>
       </c>
       <c r="I185" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J185" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J185" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K185" s="1">
         <v>1</v>
@@ -18841,10 +18841,10 @@
         <v>33</v>
       </c>
       <c r="I186" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J186" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J186" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K186" s="1">
         <v>1</v>
@@ -18939,10 +18939,10 @@
         <v>33</v>
       </c>
       <c r="I187" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J187" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J187" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K187" s="1">
         <v>1</v>
@@ -19037,10 +19037,10 @@
         <v>33</v>
       </c>
       <c r="I188" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J188" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J188" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K188" s="1">
         <v>1</v>
@@ -19135,10 +19135,10 @@
         <v>33</v>
       </c>
       <c r="I189" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J189" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J189" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K189" s="1">
         <v>1</v>
@@ -19233,10 +19233,10 @@
         <v>33</v>
       </c>
       <c r="I190" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J190" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J190" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K190" s="1">
         <v>1</v>
@@ -19331,10 +19331,10 @@
         <v>33</v>
       </c>
       <c r="I191" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J191" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J191" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K191" s="1">
         <v>1</v>
@@ -19429,10 +19429,10 @@
         <v>33</v>
       </c>
       <c r="I192" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J192" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J192" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K192" s="1">
         <v>1</v>
@@ -19527,10 +19527,10 @@
         <v>33</v>
       </c>
       <c r="I193" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J193" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J193" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K193" s="1">
         <v>1</v>
@@ -19625,10 +19625,10 @@
         <v>33</v>
       </c>
       <c r="I194" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J194" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J194" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K194" s="1">
         <v>1</v>
@@ -19723,10 +19723,10 @@
         <v>33</v>
       </c>
       <c r="I195" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J195" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J195" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K195" s="1">
         <v>1</v>
@@ -19821,10 +19821,10 @@
         <v>33</v>
       </c>
       <c r="I196" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J196" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J196" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K196" s="1">
         <v>1</v>
@@ -19919,10 +19919,10 @@
         <v>33</v>
       </c>
       <c r="I197" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J197" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J197" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K197" s="1">
         <v>1</v>
@@ -20017,10 +20017,10 @@
         <v>33</v>
       </c>
       <c r="I198" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J198" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J198" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K198" s="1">
         <v>1</v>
@@ -20115,10 +20115,10 @@
         <v>33</v>
       </c>
       <c r="I199" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J199" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J199" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K199" s="1">
         <v>1</v>
@@ -20213,10 +20213,10 @@
         <v>33</v>
       </c>
       <c r="I200" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J200" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J200" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K200" s="1">
         <v>1</v>
@@ -20311,10 +20311,10 @@
         <v>33</v>
       </c>
       <c r="I201" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J201" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J201" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K201" s="1">
         <v>1</v>
@@ -20409,10 +20409,10 @@
         <v>33</v>
       </c>
       <c r="I202" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J202" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J202" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K202" s="1">
         <v>1</v>
@@ -20507,10 +20507,10 @@
         <v>33</v>
       </c>
       <c r="I203" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J203" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J203" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K203" s="1">
         <v>1</v>
@@ -20605,10 +20605,10 @@
         <v>33</v>
       </c>
       <c r="I204" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J204" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J204" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K204" s="1">
         <v>1</v>
@@ -20703,10 +20703,10 @@
         <v>33</v>
       </c>
       <c r="I205" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J205" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J205" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K205" s="1">
         <v>1</v>
@@ -20801,10 +20801,10 @@
         <v>33</v>
       </c>
       <c r="I206" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J206" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J206" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K206" s="1">
         <v>1</v>
@@ -20899,10 +20899,10 @@
         <v>33</v>
       </c>
       <c r="I207" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J207" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J207" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K207" s="1">
         <v>1</v>
@@ -20997,10 +20997,10 @@
         <v>33</v>
       </c>
       <c r="I208" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J208" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J208" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K208" s="1">
         <v>1</v>
@@ -21095,10 +21095,10 @@
         <v>33</v>
       </c>
       <c r="I209" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J209" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J209" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K209" s="1">
         <v>1</v>
@@ -21193,10 +21193,10 @@
         <v>33</v>
       </c>
       <c r="I210" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J210" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J210" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K210" s="1">
         <v>1</v>
@@ -21291,10 +21291,10 @@
         <v>33</v>
       </c>
       <c r="I211" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J211" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J211" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K211" s="1">
         <v>1</v>
@@ -21389,10 +21389,10 @@
         <v>33</v>
       </c>
       <c r="I212" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J212" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J212" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K212" s="1">
         <v>1</v>
@@ -21487,10 +21487,10 @@
         <v>33</v>
       </c>
       <c r="I213" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J213" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J213" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K213" s="1">
         <v>1</v>
@@ -21585,10 +21585,10 @@
         <v>33</v>
       </c>
       <c r="I214" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J214" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J214" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K214" s="1">
         <v>1</v>
@@ -21683,10 +21683,10 @@
         <v>33</v>
       </c>
       <c r="I215" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J215" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J215" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K215" s="1">
         <v>1</v>
@@ -21781,10 +21781,10 @@
         <v>33</v>
       </c>
       <c r="I216" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J216" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J216" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K216" s="1">
         <v>1</v>
@@ -21879,10 +21879,10 @@
         <v>33</v>
       </c>
       <c r="I217" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J217" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J217" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K217" s="1">
         <v>1</v>
@@ -21977,10 +21977,10 @@
         <v>33</v>
       </c>
       <c r="I218" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J218" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J218" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K218" s="1">
         <v>1</v>
@@ -22075,10 +22075,10 @@
         <v>33</v>
       </c>
       <c r="I219" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J219" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J219" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K219" s="1">
         <v>1</v>
@@ -22173,10 +22173,10 @@
         <v>33</v>
       </c>
       <c r="I220" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J220" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J220" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K220" s="1">
         <v>1</v>
@@ -22271,10 +22271,10 @@
         <v>33</v>
       </c>
       <c r="I221" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J221" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J221" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K221" s="1">
         <v>1</v>
@@ -22369,10 +22369,10 @@
         <v>33</v>
       </c>
       <c r="I222" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J222" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J222" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K222" s="1">
         <v>1</v>
@@ -22467,10 +22467,10 @@
         <v>33</v>
       </c>
       <c r="I223" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J223" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J223" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K223" s="1">
         <v>1</v>
@@ -22565,10 +22565,10 @@
         <v>33</v>
       </c>
       <c r="I224" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J224" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J224" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K224" s="1">
         <v>1</v>
@@ -22663,10 +22663,10 @@
         <v>33</v>
       </c>
       <c r="I225" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J225" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J225" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K225" s="1">
         <v>1</v>
@@ -22761,10 +22761,10 @@
         <v>33</v>
       </c>
       <c r="I226" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J226" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J226" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K226" s="1">
         <v>1</v>
@@ -22859,10 +22859,10 @@
         <v>33</v>
       </c>
       <c r="I227" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J227" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J227" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K227" s="1">
         <v>1</v>
@@ -22957,10 +22957,10 @@
         <v>33</v>
       </c>
       <c r="I228" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J228" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J228" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K228" s="1">
         <v>1</v>
@@ -23055,10 +23055,10 @@
         <v>33</v>
       </c>
       <c r="I229" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J229" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J229" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K229" s="1">
         <v>1</v>
@@ -23153,10 +23153,10 @@
         <v>33</v>
       </c>
       <c r="I230" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J230" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J230" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K230" s="1">
         <v>1</v>
@@ -23251,10 +23251,10 @@
         <v>33</v>
       </c>
       <c r="I231" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J231" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J231" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K231" s="1">
         <v>1</v>
@@ -23349,10 +23349,10 @@
         <v>33</v>
       </c>
       <c r="I232" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J232" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J232" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K232" s="1">
         <v>1</v>
@@ -23447,10 +23447,10 @@
         <v>33</v>
       </c>
       <c r="I233" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J233" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J233" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K233" s="1">
         <v>1</v>
@@ -23545,10 +23545,10 @@
         <v>33</v>
       </c>
       <c r="I234" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J234" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J234" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K234" s="1">
         <v>1</v>
@@ -23643,10 +23643,10 @@
         <v>33</v>
       </c>
       <c r="I235" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J235" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J235" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K235" s="1">
         <v>1</v>
@@ -23741,10 +23741,10 @@
         <v>33</v>
       </c>
       <c r="I236" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J236" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J236" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K236" s="1">
         <v>1</v>
@@ -23839,10 +23839,10 @@
         <v>33</v>
       </c>
       <c r="I237" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J237" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J237" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K237" s="1">
         <v>1</v>
@@ -23937,10 +23937,10 @@
         <v>33</v>
       </c>
       <c r="I238" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J238" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J238" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K238" s="1">
         <v>1</v>
@@ -24035,10 +24035,10 @@
         <v>33</v>
       </c>
       <c r="I239" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J239" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J239" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K239" s="1">
         <v>1</v>
@@ -24133,10 +24133,10 @@
         <v>33</v>
       </c>
       <c r="I240" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J240" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J240" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K240" s="1">
         <v>1</v>
@@ -24231,10 +24231,10 @@
         <v>33</v>
       </c>
       <c r="I241" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J241" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J241" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K241" s="1">
         <v>1</v>
@@ -24329,10 +24329,10 @@
         <v>33</v>
       </c>
       <c r="I242" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J242" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J242" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K242" s="1">
         <v>1</v>
@@ -24427,10 +24427,10 @@
         <v>33</v>
       </c>
       <c r="I243" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J243" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J243" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K243" s="1">
         <v>1</v>
@@ -24525,10 +24525,10 @@
         <v>33</v>
       </c>
       <c r="I244" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J244" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J244" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K244" s="1">
         <v>1</v>
@@ -24623,10 +24623,10 @@
         <v>33</v>
       </c>
       <c r="I245" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J245" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J245" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K245" s="1">
         <v>1</v>
@@ -24721,10 +24721,10 @@
         <v>33</v>
       </c>
       <c r="I246" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J246" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J246" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K246" s="1">
         <v>1</v>
@@ -24819,10 +24819,10 @@
         <v>33</v>
       </c>
       <c r="I247" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J247" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J247" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K247" s="1">
         <v>1</v>
@@ -24917,10 +24917,10 @@
         <v>33</v>
       </c>
       <c r="I248" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J248" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J248" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K248" s="1">
         <v>1</v>
@@ -25015,10 +25015,10 @@
         <v>33</v>
       </c>
       <c r="I249" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J249" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J249" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K249" s="1">
         <v>1</v>
@@ -25113,10 +25113,10 @@
         <v>33</v>
       </c>
       <c r="I250" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J250" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J250" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K250" s="1">
         <v>1</v>
@@ -25211,10 +25211,10 @@
         <v>33</v>
       </c>
       <c r="I251" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J251" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J251" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K251" s="1">
         <v>1</v>
@@ -25309,10 +25309,10 @@
         <v>33</v>
       </c>
       <c r="I252" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J252" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J252" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K252" s="1">
         <v>1</v>
@@ -25407,10 +25407,10 @@
         <v>33</v>
       </c>
       <c r="I253" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J253" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J253" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K253" s="1">
         <v>1</v>
@@ -25505,10 +25505,10 @@
         <v>33</v>
       </c>
       <c r="I254" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J254" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J254" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K254" s="1">
         <v>1</v>
@@ -25603,10 +25603,10 @@
         <v>33</v>
       </c>
       <c r="I255" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J255" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J255" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K255" s="1">
         <v>1</v>
@@ -25701,10 +25701,10 @@
         <v>33</v>
       </c>
       <c r="I256" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J256" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J256" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K256" s="1">
         <v>1</v>
@@ -25799,10 +25799,10 @@
         <v>33</v>
       </c>
       <c r="I257" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J257" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J257" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K257" s="1">
         <v>1</v>
@@ -25897,10 +25897,10 @@
         <v>33</v>
       </c>
       <c r="I258" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J258" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J258" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K258" s="1">
         <v>1</v>
@@ -25995,10 +25995,10 @@
         <v>33</v>
       </c>
       <c r="I259" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J259" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J259" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K259" s="1">
         <v>1</v>
@@ -26093,10 +26093,10 @@
         <v>33</v>
       </c>
       <c r="I260" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J260" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J260" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K260" s="1">
         <v>1</v>
@@ -26191,10 +26191,10 @@
         <v>33</v>
       </c>
       <c r="I261" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J261" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J261" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K261" s="1">
         <v>1</v>
@@ -26289,10 +26289,10 @@
         <v>33</v>
       </c>
       <c r="I262" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J262" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J262" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K262" s="1">
         <v>1</v>
@@ -26387,10 +26387,10 @@
         <v>33</v>
       </c>
       <c r="I263" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J263" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J263" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K263" s="1">
         <v>1</v>
@@ -26485,10 +26485,10 @@
         <v>33</v>
       </c>
       <c r="I264" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J264" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J264" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K264" s="1">
         <v>1</v>
@@ -26583,10 +26583,10 @@
         <v>33</v>
       </c>
       <c r="I265" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J265" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J265" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K265" s="1">
         <v>1</v>
@@ -26681,10 +26681,10 @@
         <v>33</v>
       </c>
       <c r="I266" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J266" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J266" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K266" s="1">
         <v>1</v>
@@ -26779,10 +26779,10 @@
         <v>33</v>
       </c>
       <c r="I267" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J267" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J267" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K267" s="1">
         <v>1</v>
@@ -26877,10 +26877,10 @@
         <v>33</v>
       </c>
       <c r="I268" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J268" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J268" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K268" s="1">
         <v>1</v>
@@ -26975,10 +26975,10 @@
         <v>33</v>
       </c>
       <c r="I269" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J269" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J269" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K269" s="1">
         <v>1</v>
@@ -27073,10 +27073,10 @@
         <v>33</v>
       </c>
       <c r="I270" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J270" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J270" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K270" s="1">
         <v>1</v>
@@ -27171,10 +27171,10 @@
         <v>33</v>
       </c>
       <c r="I271" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J271" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J271" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K271" s="1">
         <v>1</v>
@@ -27269,10 +27269,10 @@
         <v>33</v>
       </c>
       <c r="I272" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J272" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J272" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K272" s="1">
         <v>1</v>
@@ -27367,10 +27367,10 @@
         <v>33</v>
       </c>
       <c r="I273" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J273" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J273" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K273" s="1">
         <v>1</v>
@@ -27465,10 +27465,10 @@
         <v>33</v>
       </c>
       <c r="I274" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J274" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J274" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K274" s="1">
         <v>1</v>
@@ -27563,10 +27563,10 @@
         <v>33</v>
       </c>
       <c r="I275" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J275" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J275" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K275" s="1">
         <v>1</v>
@@ -27661,10 +27661,10 @@
         <v>33</v>
       </c>
       <c r="I276" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J276" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J276" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K276" s="1">
         <v>1</v>
@@ -27759,10 +27759,10 @@
         <v>33</v>
       </c>
       <c r="I277" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J277" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J277" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K277" s="1">
         <v>1</v>
@@ -27857,10 +27857,10 @@
         <v>33</v>
       </c>
       <c r="I278" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J278" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J278" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K278" s="1">
         <v>1</v>
@@ -27955,10 +27955,10 @@
         <v>33</v>
       </c>
       <c r="I279" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J279" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J279" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K279" s="1">
         <v>1</v>
@@ -28053,10 +28053,10 @@
         <v>33</v>
       </c>
       <c r="I280" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J280" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J280" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K280" s="1">
         <v>1</v>
@@ -28151,10 +28151,10 @@
         <v>33</v>
       </c>
       <c r="I281" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J281" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J281" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K281" s="1">
         <v>1</v>
@@ -28249,10 +28249,10 @@
         <v>33</v>
       </c>
       <c r="I282" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J282" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J282" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K282" s="1">
         <v>1</v>
@@ -28347,10 +28347,10 @@
         <v>33</v>
       </c>
       <c r="I283" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J283" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J283" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K283" s="1">
         <v>1</v>
@@ -28445,10 +28445,10 @@
         <v>33</v>
       </c>
       <c r="I284" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J284" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J284" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K284" s="1">
         <v>1</v>
@@ -28543,10 +28543,10 @@
         <v>33</v>
       </c>
       <c r="I285" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J285" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J285" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K285" s="1">
         <v>1</v>
@@ -28641,10 +28641,10 @@
         <v>33</v>
       </c>
       <c r="I286" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J286" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J286" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K286" s="1">
         <v>1</v>
@@ -28739,10 +28739,10 @@
         <v>33</v>
       </c>
       <c r="I287" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J287" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J287" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K287" s="1">
         <v>1</v>
@@ -28837,10 +28837,10 @@
         <v>33</v>
       </c>
       <c r="I288" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J288" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J288" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K288" s="1">
         <v>1</v>
@@ -28935,10 +28935,10 @@
         <v>33</v>
       </c>
       <c r="I289" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J289" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J289" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K289" s="1">
         <v>1</v>
@@ -29033,10 +29033,10 @@
         <v>33</v>
       </c>
       <c r="I290" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J290" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J290" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K290" s="1">
         <v>1</v>
@@ -29131,10 +29131,10 @@
         <v>33</v>
       </c>
       <c r="I291" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J291" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J291" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K291" s="1">
         <v>1</v>
@@ -29229,10 +29229,10 @@
         <v>33</v>
       </c>
       <c r="I292" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J292" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J292" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K292" s="1">
         <v>1</v>
@@ -29327,10 +29327,10 @@
         <v>33</v>
       </c>
       <c r="I293" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J293" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J293" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K293" s="1">
         <v>1</v>
@@ -29426,70 +29426,70 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
         <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>46</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
-      </c>
-      <c r="R1" t="s">
-        <v>51</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
       </c>
       <c r="T1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" t="s">
         <v>52</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>53</v>
-      </c>
-      <c r="V1" t="s">
-        <v>54</v>
       </c>
       <c r="W1" t="s">
         <v>27</v>
@@ -29498,22 +29498,22 @@
         <v>28</v>
       </c>
       <c r="Y1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -56928,7 +56928,7 @@
         <v>0.6</v>
       </c>
       <c r="G258">
-        <f t="shared" ref="G258:G321" si="68">IF(E258=90,F258,0)</f>
+        <f t="shared" ref="G258:G293" si="68">IF(E258=90,F258,0)</f>
         <v>0</v>
       </c>
       <c r="H258">
@@ -56947,7 +56947,7 @@
         <v>0</v>
       </c>
       <c r="L258">
-        <f t="shared" ref="L258:L321" si="72">IF(E258=90,K258,0)</f>
+        <f t="shared" ref="L258:L293" si="72">IF(E258=90,K258,0)</f>
         <v>0</v>
       </c>
       <c r="M258">
@@ -56999,11 +56999,11 @@
         <v>153.89356020089397</v>
       </c>
       <c r="AA258">
-        <f t="shared" ref="AA258:AA321" si="78">T258*(1+B258/Z258^2)*S258/(1+S258)</f>
+        <f t="shared" ref="AA258:AA293" si="78">T258*(1+B258/Z258^2)*S258/(1+S258)</f>
         <v>3.5671339874368359E-2</v>
       </c>
       <c r="AB258" s="11">
-        <f t="shared" ref="AB258:AB321" si="79">T258-AA258/Y258*C258*C258</f>
+        <f t="shared" ref="AB258:AB293" si="79">T258-AA258/Y258*C258*C258</f>
         <v>0.39750846113096694</v>
       </c>
       <c r="AC258">
@@ -60778,42 +60778,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
         <v>32</v>
       </c>
       <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
         <v>65</v>
-      </c>
-      <c r="F5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -68429,7 +68429,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -68438,19 +68438,19 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" t="s">
-        <v>68</v>
-      </c>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
